--- a/Data/aearep-2002/candidatepackages.xlsx
+++ b/Data/aearep-2002/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -22,27 +22,21 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>reghdfe</t>
   </si>
   <si>
-    <t>unique</t>
-  </si>
-  <si>
     <t>binscatter</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>missings</t>
+  </si>
+  <si>
     <t>carryforward</t>
   </si>
   <si>
-    <t>fs</t>
-  </si>
-  <si>
-    <t>missings</t>
-  </si>
-  <si>
     <t>ivreghdfe</t>
   </si>
   <si>
@@ -64,30 +58,21 @@
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
-    <t>txttool</t>
-  </si>
-  <si>
     <t>wyoung</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>sq</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
     <t>acreg</t>
   </si>
   <si>
-    <t>sq</t>
-  </si>
-  <si>
-    <t>report</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
     <t>split</t>
   </si>
   <si>
@@ -100,57 +85,42 @@
     <t>heart</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
     <t>delta</t>
   </si>
   <si>
+    <t>bys</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>effects</t>
+  </si>
+  <si>
     <t>ssm</t>
   </si>
   <si>
-    <t>bys</t>
-  </si>
-  <si>
-    <t>pre</t>
-  </si>
-  <si>
-    <t>effects</t>
-  </si>
-  <si>
     <t>adjust</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>stop</t>
+    <t>unemp</t>
+  </si>
+  <si>
+    <t>gets</t>
+  </si>
+  <si>
+    <t>head</t>
   </si>
   <si>
     <t>cal</t>
   </si>
   <si>
-    <t>gets</t>
-  </si>
-  <si>
-    <t>unemp</t>
-  </si>
-  <si>
-    <t>head</t>
+    <t>dash</t>
   </si>
   <si>
     <t>sequence</t>
   </si>
   <si>
-    <t>dash</t>
-  </si>
-  <si>
     <t>inccat</t>
   </si>
   <si>
@@ -169,33 +139,18 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-2002</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-2002/136101/program/cross-sectional</t>
   </si>
   <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-2002/136101/program/mrfit</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-2002/tools</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-2002/tools/Statapackagesearch/R_scan_code</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-2002/tools/Statapackagesearch/Stata_scan_code</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>template-config.do</t>
-  </si>
-  <si>
     <t>analysis_allcx.do</t>
   </si>
   <si>
@@ -235,16 +190,10 @@
     <t>mrfit_intake.do</t>
   </si>
   <si>
-    <t>convert_graphs.do</t>
-  </si>
-  <si>
     <t>fewmissingpackages.do</t>
   </si>
   <si>
     <t>lotsofmissingpackages.do</t>
-  </si>
-  <si>
-    <t>scan_packages.do</t>
   </si>
 </sst>
 </file>
@@ -288,7 +237,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D37"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -296,13 +245,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -322,7 +271,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -334,7 +283,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -346,7 +295,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -358,7 +307,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -370,7 +319,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -382,7 +331,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -394,7 +343,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -406,7 +355,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -418,7 +367,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -430,7 +379,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -442,7 +391,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -454,7 +403,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>103</v>
+        <v>293</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -466,10 +415,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>166</v>
+        <v>395</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.13057851791381836</v>
       </c>
       <c r="D15"/>
     </row>
@@ -478,10 +427,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>267</v>
+        <v>499</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D16"/>
     </row>
@@ -490,10 +439,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>279</v>
+        <v>525</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.1735537201166153</v>
       </c>
       <c r="D17"/>
     </row>
@@ -502,10 +451,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>303</v>
+        <v>563</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D18"/>
     </row>
@@ -514,10 +463,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>346</v>
+        <v>584</v>
       </c>
       <c r="C19">
-        <v>0.11472148448228836</v>
+        <v>0.19305785000324249</v>
       </c>
       <c r="D19"/>
     </row>
@@ -526,10 +475,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>528</v>
+        <v>632</v>
       </c>
       <c r="C20">
-        <v>0.17506630718708038</v>
+        <v>0.20892561972141266</v>
       </c>
       <c r="D20"/>
     </row>
@@ -538,10 +487,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>563</v>
+        <v>712</v>
       </c>
       <c r="C21">
-        <v>0.18667109310626984</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D21"/>
     </row>
@@ -550,10 +499,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>564</v>
+        <v>998</v>
       </c>
       <c r="C22">
-        <v>0.18700265884399414</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D22"/>
     </row>
@@ -562,10 +511,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>565</v>
+        <v>1101</v>
       </c>
       <c r="C23">
-        <v>0.18733422458171844</v>
+        <v>0.36396694183349609</v>
       </c>
       <c r="D23"/>
     </row>
@@ -574,10 +523,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>566</v>
+        <v>1125</v>
       </c>
       <c r="C24">
-        <v>0.18766577541828156</v>
+        <v>0.37190082669258118</v>
       </c>
       <c r="D24"/>
     </row>
@@ -586,10 +535,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>606</v>
+        <v>1306</v>
       </c>
       <c r="C25">
-        <v>0.20092837512493134</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D25"/>
     </row>
@@ -598,10 +547,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>745</v>
+        <v>1428</v>
       </c>
       <c r="C26">
-        <v>0.24701590836048126</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D26"/>
     </row>
@@ -610,10 +559,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>985</v>
+        <v>1497</v>
       </c>
       <c r="C27">
-        <v>0.32659152150154114</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D27"/>
     </row>
@@ -622,10 +571,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1049</v>
+        <v>1554</v>
       </c>
       <c r="C28">
-        <v>0.34781166911125183</v>
+        <v>0.51371902227401733</v>
       </c>
       <c r="D28"/>
     </row>
@@ -634,10 +583,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1124</v>
+        <v>1796</v>
       </c>
       <c r="C29">
-        <v>0.37267905473709106</v>
+        <v>0.5937190055847168</v>
       </c>
       <c r="D29"/>
     </row>
@@ -646,10 +595,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1194</v>
+        <v>1838</v>
       </c>
       <c r="C30">
-        <v>0.39588859677314758</v>
+        <v>0.60760331153869629</v>
       </c>
       <c r="D30"/>
     </row>
@@ -658,10 +607,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1428</v>
+        <v>1865</v>
       </c>
       <c r="C31">
-        <v>0.47347480058670044</v>
+        <v>0.61652892827987671</v>
       </c>
       <c r="D31"/>
     </row>
@@ -670,10 +619,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1472</v>
+        <v>1971</v>
       </c>
       <c r="C32">
-        <v>0.48806366324424744</v>
+        <v>0.65157026052474976</v>
       </c>
       <c r="D32"/>
     </row>
@@ -682,10 +631,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1553</v>
+        <v>2259</v>
       </c>
       <c r="C33">
-        <v>0.51492041349411011</v>
+        <v>0.74677687883377075</v>
       </c>
       <c r="D33"/>
     </row>
@@ -694,10 +643,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1660</v>
+        <v>2436</v>
       </c>
       <c r="C34">
-        <v>0.55039787292480469</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D34"/>
     </row>
@@ -706,10 +655,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1793</v>
+        <v>2485</v>
       </c>
       <c r="C35">
-        <v>0.59449601173400879</v>
+        <v>0.82148760557174683</v>
       </c>
       <c r="D35"/>
     </row>
@@ -718,10 +667,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1798</v>
+        <v>2732</v>
       </c>
       <c r="C36">
-        <v>0.5961538553237915</v>
+        <v>0.90314048528671265</v>
       </c>
       <c r="D36"/>
     </row>
@@ -730,132 +679,12 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1817</v>
+        <v>2785</v>
       </c>
       <c r="C37">
-        <v>0.60245358943939209</v>
+        <v>0.92066115140914917</v>
       </c>
       <c r="D37"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>1859</v>
-      </c>
-      <c r="C38">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D38"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>1890</v>
-      </c>
-      <c r="C39">
-        <v>0.62665784358978271</v>
-      </c>
-      <c r="D39"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>1963</v>
-      </c>
-      <c r="C40">
-        <v>0.65086209774017334</v>
-      </c>
-      <c r="D40"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>1965</v>
-      </c>
-      <c r="C41">
-        <v>0.65152519941329956</v>
-      </c>
-      <c r="D41"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>2000</v>
-      </c>
-      <c r="C42">
-        <v>0.66312998533248901</v>
-      </c>
-      <c r="D42"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>2133</v>
-      </c>
-      <c r="C43">
-        <v>0.70722812414169312</v>
-      </c>
-      <c r="D43"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>2208</v>
-      </c>
-      <c r="C44">
-        <v>0.73209547996520996</v>
-      </c>
-      <c r="D44"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>2424</v>
-      </c>
-      <c r="C45">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D45"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>2526</v>
-      </c>
-      <c r="C46">
-        <v>0.83753317594528198</v>
-      </c>
-      <c r="D46"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>2714</v>
-      </c>
-      <c r="C47">
-        <v>0.89986735582351685</v>
-      </c>
-      <c r="D47"/>
     </row>
   </sheetData>
 </worksheet>
@@ -863,167 +692,135 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B16"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
         <v>52</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
